--- a/database/industries/dode/shedoos/product/monthly.xlsx
+++ b/database/industries/dode/shedoos/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\dode\shedoos\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE32E49-3A21-4740-9BF5-2654AE1A75AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371C90C6-A33C-45F8-83A3-EAD2B5C5273B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="77">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
-  </si>
-  <si>
     <t>ماه 8 منتهی به 1397/08</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>دوده صادراتی</t>
@@ -1495,11 +1495,11 @@
       <c r="AG11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI11" s="11" t="s">
-        <v>57</v>
+      <c r="AH11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>0</v>
       </c>
       <c r="AJ11" s="11">
         <v>0</v>
@@ -1525,14 +1525,14 @@
       <c r="AQ11" s="11">
         <v>0</v>
       </c>
-      <c r="AR11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="11">
-        <v>0</v>
+      <c r="AR11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU11" s="11" t="s">
         <v>57</v>
@@ -1654,11 +1654,11 @@
       <c r="AG12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI12" s="13" t="s">
-        <v>57</v>
+      <c r="AH12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>0</v>
       </c>
       <c r="AJ12" s="13">
         <v>0</v>
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="AL12" s="13">
-        <v>0</v>
+        <v>2873</v>
       </c>
       <c r="AM12" s="13">
         <v>0</v>
       </c>
       <c r="AN12" s="13">
-        <v>2873</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="13">
         <v>0</v>
@@ -1681,11 +1681,11 @@
       <c r="AP12" s="13">
         <v>0</v>
       </c>
-      <c r="AQ12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="13">
-        <v>0</v>
+      <c r="AQ12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR12" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS12" s="13" t="s">
         <v>57</v>
@@ -1727,154 +1727,154 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>1396</v>
+        <v>2661</v>
       </c>
       <c r="F13" s="11">
-        <v>1478</v>
+        <v>2736</v>
       </c>
       <c r="G13" s="11">
-        <v>2661</v>
+        <v>2603</v>
       </c>
       <c r="H13" s="11">
-        <v>2736</v>
+        <v>2372</v>
       </c>
       <c r="I13" s="11">
-        <v>2603</v>
+        <v>2203</v>
       </c>
       <c r="J13" s="11">
-        <v>2372</v>
+        <v>1900</v>
       </c>
       <c r="K13" s="11">
-        <v>2203</v>
+        <v>2519</v>
       </c>
       <c r="L13" s="11">
-        <v>1900</v>
+        <v>2940</v>
       </c>
       <c r="M13" s="11">
-        <v>2519</v>
+        <v>2181</v>
       </c>
       <c r="N13" s="11">
-        <v>2940</v>
+        <v>2298</v>
       </c>
       <c r="O13" s="11">
-        <v>2181</v>
+        <v>1575</v>
       </c>
       <c r="P13" s="11">
-        <v>2298</v>
+        <v>1081</v>
       </c>
       <c r="Q13" s="11">
-        <v>1575</v>
+        <v>2210</v>
       </c>
       <c r="R13" s="11">
-        <v>1081</v>
+        <v>2574</v>
       </c>
       <c r="S13" s="11">
-        <v>2210</v>
+        <v>2530</v>
       </c>
       <c r="T13" s="11">
-        <v>2574</v>
+        <v>2324</v>
       </c>
       <c r="U13" s="11">
-        <v>2530</v>
+        <v>2112</v>
       </c>
       <c r="V13" s="11">
-        <v>2324</v>
+        <v>1050</v>
       </c>
       <c r="W13" s="11">
-        <v>2112</v>
+        <v>2457</v>
       </c>
       <c r="X13" s="11">
-        <v>1050</v>
+        <v>3065</v>
       </c>
       <c r="Y13" s="11">
-        <v>2457</v>
+        <v>2437</v>
       </c>
       <c r="Z13" s="11">
-        <v>3065</v>
+        <v>2209</v>
       </c>
       <c r="AA13" s="11">
-        <v>2437</v>
+        <v>2374</v>
       </c>
       <c r="AB13" s="11">
-        <v>2209</v>
+        <v>2253</v>
       </c>
       <c r="AC13" s="11">
-        <v>2374</v>
+        <v>1716</v>
       </c>
       <c r="AD13" s="11">
-        <v>2253</v>
+        <v>2192</v>
       </c>
       <c r="AE13" s="11">
-        <v>1716</v>
+        <v>1585</v>
       </c>
       <c r="AF13" s="11">
-        <v>2192</v>
+        <v>1622</v>
       </c>
       <c r="AG13" s="11">
-        <v>1585</v>
+        <v>2385</v>
       </c>
       <c r="AH13" s="11">
-        <v>1622</v>
+        <v>2057</v>
       </c>
       <c r="AI13" s="11">
-        <v>2385</v>
+        <v>3170</v>
       </c>
       <c r="AJ13" s="11">
-        <v>2057</v>
+        <v>2426</v>
       </c>
       <c r="AK13" s="11">
-        <v>3170</v>
+        <v>2697</v>
       </c>
       <c r="AL13" s="11">
-        <v>2426</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="11">
-        <v>2697</v>
+        <v>2743</v>
       </c>
       <c r="AN13" s="11">
-        <v>0</v>
+        <v>3033</v>
       </c>
       <c r="AO13" s="11">
-        <v>2743</v>
+        <v>3020</v>
       </c>
       <c r="AP13" s="11">
-        <v>3033</v>
+        <v>3000</v>
       </c>
       <c r="AQ13" s="11">
-        <v>3020</v>
+        <v>3037</v>
       </c>
       <c r="AR13" s="11">
-        <v>3000</v>
+        <v>31006</v>
       </c>
       <c r="AS13" s="11">
-        <v>3037</v>
+        <v>2006</v>
       </c>
       <c r="AT13" s="11">
-        <v>2950</v>
+        <v>2942</v>
       </c>
       <c r="AU13" s="11">
-        <v>2006</v>
+        <v>2784</v>
       </c>
       <c r="AV13" s="11">
-        <v>2942</v>
+        <v>2412</v>
       </c>
       <c r="AW13" s="11">
-        <v>2784</v>
+        <v>2274</v>
       </c>
       <c r="AX13" s="11">
-        <v>2412</v>
+        <v>2718</v>
       </c>
       <c r="AY13" s="11">
-        <v>2274</v>
+        <v>2251</v>
       </c>
       <c r="AZ13" s="11">
-        <v>2718</v>
+        <v>2396</v>
       </c>
       <c r="BA13" s="11">
-        <v>2251</v>
+        <v>2312</v>
       </c>
       <c r="BB13" s="11">
-        <v>2396</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -2000,11 +2000,11 @@
       <c r="X15" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z15" s="17" t="s">
-        <v>57</v>
+      <c r="Y15" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="17">
+        <v>0</v>
       </c>
       <c r="AA15" s="17">
         <v>0</v>
@@ -2098,154 +2098,154 @@
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19">
-        <v>1396</v>
+        <v>2661</v>
       </c>
       <c r="F16" s="19">
-        <v>1478</v>
+        <v>2736</v>
       </c>
       <c r="G16" s="19">
-        <v>2661</v>
+        <v>2603</v>
       </c>
       <c r="H16" s="19">
-        <v>2736</v>
+        <v>2372</v>
       </c>
       <c r="I16" s="19">
-        <v>2603</v>
+        <v>2203</v>
       </c>
       <c r="J16" s="19">
-        <v>2372</v>
+        <v>1900</v>
       </c>
       <c r="K16" s="19">
-        <v>2203</v>
+        <v>2519</v>
       </c>
       <c r="L16" s="19">
-        <v>1900</v>
+        <v>2940</v>
       </c>
       <c r="M16" s="19">
-        <v>2519</v>
+        <v>2181</v>
       </c>
       <c r="N16" s="19">
-        <v>2940</v>
+        <v>2298</v>
       </c>
       <c r="O16" s="19">
-        <v>2181</v>
+        <v>1575</v>
       </c>
       <c r="P16" s="19">
-        <v>2298</v>
+        <v>1081</v>
       </c>
       <c r="Q16" s="19">
-        <v>1575</v>
+        <v>2210</v>
       </c>
       <c r="R16" s="19">
-        <v>1081</v>
+        <v>2574</v>
       </c>
       <c r="S16" s="19">
-        <v>2210</v>
+        <v>2530</v>
       </c>
       <c r="T16" s="19">
-        <v>2574</v>
+        <v>2324</v>
       </c>
       <c r="U16" s="19">
-        <v>2530</v>
+        <v>2112</v>
       </c>
       <c r="V16" s="19">
-        <v>2324</v>
+        <v>1050</v>
       </c>
       <c r="W16" s="19">
-        <v>2112</v>
+        <v>2457</v>
       </c>
       <c r="X16" s="19">
-        <v>1050</v>
+        <v>3065</v>
       </c>
       <c r="Y16" s="19">
-        <v>2457</v>
+        <v>2437</v>
       </c>
       <c r="Z16" s="19">
-        <v>3065</v>
+        <v>2209</v>
       </c>
       <c r="AA16" s="19">
-        <v>2437</v>
+        <v>2374</v>
       </c>
       <c r="AB16" s="19">
-        <v>2209</v>
+        <v>2253</v>
       </c>
       <c r="AC16" s="19">
-        <v>2374</v>
+        <v>1716</v>
       </c>
       <c r="AD16" s="19">
-        <v>2253</v>
+        <v>2192</v>
       </c>
       <c r="AE16" s="19">
-        <v>1716</v>
+        <v>1585</v>
       </c>
       <c r="AF16" s="19">
-        <v>2192</v>
+        <v>1622</v>
       </c>
       <c r="AG16" s="19">
-        <v>1585</v>
+        <v>2385</v>
       </c>
       <c r="AH16" s="19">
-        <v>1622</v>
+        <v>2057</v>
       </c>
       <c r="AI16" s="19">
-        <v>2385</v>
+        <v>3170</v>
       </c>
       <c r="AJ16" s="19">
-        <v>2057</v>
+        <v>2426</v>
       </c>
       <c r="AK16" s="19">
-        <v>3170</v>
+        <v>2697</v>
       </c>
       <c r="AL16" s="19">
-        <v>2426</v>
+        <v>2873</v>
       </c>
       <c r="AM16" s="19">
-        <v>2697</v>
+        <v>2743</v>
       </c>
       <c r="AN16" s="19">
-        <v>2873</v>
+        <v>3033</v>
       </c>
       <c r="AO16" s="19">
-        <v>2743</v>
+        <v>3020</v>
       </c>
       <c r="AP16" s="19">
-        <v>3033</v>
+        <v>3000</v>
       </c>
       <c r="AQ16" s="19">
-        <v>3020</v>
+        <v>3037</v>
       </c>
       <c r="AR16" s="19">
-        <v>3000</v>
+        <v>31006</v>
       </c>
       <c r="AS16" s="19">
-        <v>3037</v>
+        <v>2006</v>
       </c>
       <c r="AT16" s="19">
-        <v>2950</v>
+        <v>2942</v>
       </c>
       <c r="AU16" s="19">
-        <v>2006</v>
+        <v>2784</v>
       </c>
       <c r="AV16" s="19">
-        <v>2942</v>
+        <v>2412</v>
       </c>
       <c r="AW16" s="19">
-        <v>2784</v>
+        <v>2274</v>
       </c>
       <c r="AX16" s="19">
-        <v>2412</v>
+        <v>2718</v>
       </c>
       <c r="AY16" s="19">
-        <v>2274</v>
+        <v>2251</v>
       </c>
       <c r="AZ16" s="19">
-        <v>2718</v>
+        <v>2396</v>
       </c>
       <c r="BA16" s="19">
-        <v>2251</v>
+        <v>2312</v>
       </c>
       <c r="BB16" s="19">
-        <v>2396</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2777,44 +2777,44 @@
       <c r="AG23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI23" s="11" t="s">
-        <v>57</v>
+      <c r="AH23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="11">
+        <v>95</v>
       </c>
       <c r="AJ23" s="11">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="AK23" s="11">
-        <v>95</v>
+        <v>379</v>
       </c>
       <c r="AL23" s="11">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AM23" s="11">
-        <v>379</v>
+        <v>0</v>
       </c>
       <c r="AN23" s="11">
-        <v>224</v>
+        <v>37</v>
       </c>
       <c r="AO23" s="11">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AP23" s="11">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="AQ23" s="11">
-        <v>19</v>
-      </c>
-      <c r="AR23" s="11">
-        <v>243</v>
-      </c>
-      <c r="AS23" s="11">
         <v>39</v>
       </c>
-      <c r="AT23" s="11">
-        <v>302</v>
+      <c r="AR23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT23" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU23" s="11" t="s">
         <v>57</v>
@@ -2936,11 +2936,11 @@
       <c r="AG24" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI24" s="13" t="s">
-        <v>57</v>
+      <c r="AH24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="13">
+        <v>0</v>
       </c>
       <c r="AJ24" s="13">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         <v>0</v>
       </c>
       <c r="AL24" s="13">
-        <v>0</v>
+        <v>2689</v>
       </c>
       <c r="AM24" s="13">
         <v>0</v>
       </c>
       <c r="AN24" s="13">
-        <v>2689</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="13">
         <v>0</v>
@@ -2963,11 +2963,11 @@
       <c r="AP24" s="13">
         <v>0</v>
       </c>
-      <c r="AQ24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR24" s="13">
-        <v>0</v>
+      <c r="AQ24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR24" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS24" s="13" t="s">
         <v>57</v>
@@ -3009,154 +3009,154 @@
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11">
-        <v>1588</v>
+        <v>1915</v>
       </c>
       <c r="F25" s="11">
-        <v>579</v>
+        <v>2637</v>
       </c>
       <c r="G25" s="11">
-        <v>1915</v>
+        <v>1975</v>
       </c>
       <c r="H25" s="11">
-        <v>2637</v>
+        <v>1966</v>
       </c>
       <c r="I25" s="11">
-        <v>1975</v>
+        <v>2331</v>
       </c>
       <c r="J25" s="11">
-        <v>1966</v>
+        <v>2224</v>
       </c>
       <c r="K25" s="11">
-        <v>2331</v>
+        <v>2827</v>
       </c>
       <c r="L25" s="11">
-        <v>2224</v>
+        <v>1646</v>
       </c>
       <c r="M25" s="11">
-        <v>2827</v>
+        <v>1735</v>
       </c>
       <c r="N25" s="11">
-        <v>1646</v>
+        <v>1607</v>
       </c>
       <c r="O25" s="11">
-        <v>1735</v>
+        <v>2914</v>
       </c>
       <c r="P25" s="11">
-        <v>1607</v>
+        <v>1754</v>
       </c>
       <c r="Q25" s="11">
-        <v>2914</v>
+        <v>1546</v>
       </c>
       <c r="R25" s="11">
-        <v>1754</v>
+        <v>2506</v>
       </c>
       <c r="S25" s="11">
-        <v>1546</v>
+        <v>2390</v>
       </c>
       <c r="T25" s="11">
-        <v>2506</v>
+        <v>2755</v>
       </c>
       <c r="U25" s="11">
-        <v>2390</v>
+        <v>3100</v>
       </c>
       <c r="V25" s="11">
-        <v>2755</v>
+        <v>1415</v>
       </c>
       <c r="W25" s="11">
-        <v>3100</v>
+        <v>2461</v>
       </c>
       <c r="X25" s="11">
-        <v>1415</v>
+        <v>3147</v>
       </c>
       <c r="Y25" s="11">
-        <v>2461</v>
+        <v>2157</v>
       </c>
       <c r="Z25" s="11">
-        <v>3147</v>
+        <v>1818</v>
       </c>
       <c r="AA25" s="11">
-        <v>2157</v>
+        <v>3754</v>
       </c>
       <c r="AB25" s="11">
-        <v>1818</v>
+        <v>2303</v>
       </c>
       <c r="AC25" s="11">
-        <v>3754</v>
+        <v>2026</v>
       </c>
       <c r="AD25" s="11">
-        <v>2303</v>
+        <v>2462</v>
       </c>
       <c r="AE25" s="11">
-        <v>2026</v>
+        <v>1768</v>
       </c>
       <c r="AF25" s="11">
-        <v>2462</v>
+        <v>1484</v>
       </c>
       <c r="AG25" s="11">
-        <v>1768</v>
+        <v>1916</v>
       </c>
       <c r="AH25" s="11">
-        <v>1484</v>
+        <v>2074</v>
       </c>
       <c r="AI25" s="11">
-        <v>1916</v>
+        <v>2960</v>
       </c>
       <c r="AJ25" s="11">
-        <v>2074</v>
+        <v>2201</v>
       </c>
       <c r="AK25" s="11">
-        <v>2960</v>
+        <v>2283</v>
       </c>
       <c r="AL25" s="11">
-        <v>2201</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="11">
-        <v>2283</v>
+        <v>2941</v>
       </c>
       <c r="AN25" s="11">
-        <v>0</v>
+        <v>2925</v>
       </c>
       <c r="AO25" s="11">
-        <v>2941</v>
+        <v>2174</v>
       </c>
       <c r="AP25" s="11">
-        <v>2925</v>
+        <v>3345</v>
       </c>
       <c r="AQ25" s="11">
-        <v>2174</v>
+        <v>2823</v>
       </c>
       <c r="AR25" s="11">
-        <v>3345</v>
+        <v>29128</v>
       </c>
       <c r="AS25" s="11">
-        <v>2823</v>
+        <v>2457</v>
       </c>
       <c r="AT25" s="11">
-        <v>2411</v>
+        <v>2669</v>
       </c>
       <c r="AU25" s="11">
-        <v>2457</v>
+        <v>2913</v>
       </c>
       <c r="AV25" s="11">
-        <v>2669</v>
+        <v>2443</v>
       </c>
       <c r="AW25" s="11">
-        <v>2913</v>
+        <v>2428</v>
       </c>
       <c r="AX25" s="11">
-        <v>2443</v>
+        <v>2018</v>
       </c>
       <c r="AY25" s="11">
-        <v>2428</v>
+        <v>2112</v>
       </c>
       <c r="AZ25" s="11">
-        <v>2018</v>
+        <v>2039</v>
       </c>
       <c r="BA25" s="11">
-        <v>2112</v>
+        <v>2579</v>
       </c>
       <c r="BB25" s="11">
-        <v>2039</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -3282,11 +3282,11 @@
       <c r="X27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y27" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z27" s="17" t="s">
-        <v>57</v>
+      <c r="Y27" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="17">
+        <v>0</v>
       </c>
       <c r="AA27" s="17">
         <v>0</v>
@@ -3498,11 +3498,11 @@
       <c r="X29" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z29" s="11" t="s">
-        <v>57</v>
+      <c r="Y29" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="11">
+        <v>0</v>
       </c>
       <c r="AA29" s="11">
         <v>0</v>
@@ -3528,11 +3528,11 @@
       <c r="AH29" s="11">
         <v>0</v>
       </c>
-      <c r="AI29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="11">
-        <v>0</v>
+      <c r="AI29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ29" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AK29" s="11" t="s">
         <v>57</v>
@@ -3655,11 +3655,11 @@
       <c r="X30" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="Y30" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z30" s="19" t="s">
-        <v>57</v>
+      <c r="Y30" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="19">
+        <v>0</v>
       </c>
       <c r="AA30" s="19">
         <v>0</v>
@@ -3753,154 +3753,154 @@
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="17">
-        <v>1588</v>
+        <v>1915</v>
       </c>
       <c r="F31" s="17">
-        <v>579</v>
+        <v>2637</v>
       </c>
       <c r="G31" s="17">
-        <v>1915</v>
+        <v>1975</v>
       </c>
       <c r="H31" s="17">
-        <v>2637</v>
+        <v>1966</v>
       </c>
       <c r="I31" s="17">
-        <v>1975</v>
+        <v>2331</v>
       </c>
       <c r="J31" s="17">
-        <v>1966</v>
+        <v>2224</v>
       </c>
       <c r="K31" s="17">
-        <v>2331</v>
+        <v>2827</v>
       </c>
       <c r="L31" s="17">
-        <v>2224</v>
+        <v>1646</v>
       </c>
       <c r="M31" s="17">
-        <v>2827</v>
+        <v>1735</v>
       </c>
       <c r="N31" s="17">
-        <v>1646</v>
+        <v>1607</v>
       </c>
       <c r="O31" s="17">
-        <v>1735</v>
+        <v>2914</v>
       </c>
       <c r="P31" s="17">
-        <v>1607</v>
+        <v>1754</v>
       </c>
       <c r="Q31" s="17">
-        <v>2914</v>
+        <v>1546</v>
       </c>
       <c r="R31" s="17">
-        <v>1754</v>
+        <v>2506</v>
       </c>
       <c r="S31" s="17">
-        <v>1546</v>
+        <v>2390</v>
       </c>
       <c r="T31" s="17">
-        <v>2506</v>
+        <v>2755</v>
       </c>
       <c r="U31" s="17">
-        <v>2390</v>
+        <v>3100</v>
       </c>
       <c r="V31" s="17">
-        <v>2755</v>
+        <v>1415</v>
       </c>
       <c r="W31" s="17">
-        <v>3100</v>
+        <v>2461</v>
       </c>
       <c r="X31" s="17">
-        <v>1415</v>
+        <v>3147</v>
       </c>
       <c r="Y31" s="17">
-        <v>2461</v>
+        <v>2157</v>
       </c>
       <c r="Z31" s="17">
-        <v>3147</v>
+        <v>1818</v>
       </c>
       <c r="AA31" s="17">
-        <v>2157</v>
+        <v>3754</v>
       </c>
       <c r="AB31" s="17">
-        <v>1818</v>
+        <v>2303</v>
       </c>
       <c r="AC31" s="17">
-        <v>3754</v>
+        <v>2026</v>
       </c>
       <c r="AD31" s="17">
-        <v>2303</v>
+        <v>2462</v>
       </c>
       <c r="AE31" s="17">
-        <v>2026</v>
+        <v>1768</v>
       </c>
       <c r="AF31" s="17">
-        <v>2462</v>
+        <v>1484</v>
       </c>
       <c r="AG31" s="17">
-        <v>1768</v>
+        <v>1916</v>
       </c>
       <c r="AH31" s="17">
-        <v>1484</v>
+        <v>2074</v>
       </c>
       <c r="AI31" s="17">
-        <v>1916</v>
+        <v>3055</v>
       </c>
       <c r="AJ31" s="17">
-        <v>2074</v>
+        <v>2420</v>
       </c>
       <c r="AK31" s="17">
-        <v>3055</v>
+        <v>2662</v>
       </c>
       <c r="AL31" s="17">
-        <v>2420</v>
+        <v>2913</v>
       </c>
       <c r="AM31" s="17">
-        <v>2662</v>
+        <v>2941</v>
       </c>
       <c r="AN31" s="17">
+        <v>2962</v>
+      </c>
+      <c r="AO31" s="17">
+        <v>2193</v>
+      </c>
+      <c r="AP31" s="17">
+        <v>3588</v>
+      </c>
+      <c r="AQ31" s="17">
+        <v>2862</v>
+      </c>
+      <c r="AR31" s="17">
+        <v>29128</v>
+      </c>
+      <c r="AS31" s="17">
+        <v>2457</v>
+      </c>
+      <c r="AT31" s="17">
+        <v>2669</v>
+      </c>
+      <c r="AU31" s="17">
         <v>2913</v>
       </c>
-      <c r="AO31" s="17">
-        <v>2941</v>
-      </c>
-      <c r="AP31" s="17">
-        <v>2962</v>
-      </c>
-      <c r="AQ31" s="17">
-        <v>2193</v>
-      </c>
-      <c r="AR31" s="17">
-        <v>3588</v>
-      </c>
-      <c r="AS31" s="17">
-        <v>2862</v>
-      </c>
-      <c r="AT31" s="17">
-        <v>2713</v>
-      </c>
-      <c r="AU31" s="17">
-        <v>2457</v>
-      </c>
       <c r="AV31" s="17">
-        <v>2669</v>
+        <v>2443</v>
       </c>
       <c r="AW31" s="17">
-        <v>2913</v>
+        <v>2428</v>
       </c>
       <c r="AX31" s="17">
-        <v>2443</v>
+        <v>2018</v>
       </c>
       <c r="AY31" s="17">
-        <v>2428</v>
+        <v>2112</v>
       </c>
       <c r="AZ31" s="17">
-        <v>2018</v>
+        <v>2039</v>
       </c>
       <c r="BA31" s="17">
-        <v>2112</v>
+        <v>2579</v>
       </c>
       <c r="BB31" s="17">
-        <v>2039</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4432,44 +4432,44 @@
       <c r="AG38" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI38" s="11" t="s">
-        <v>57</v>
+      <c r="AH38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="11">
+        <v>24019</v>
       </c>
       <c r="AJ38" s="11">
-        <v>0</v>
+        <v>53161</v>
       </c>
       <c r="AK38" s="11">
-        <v>24019</v>
+        <v>90948</v>
       </c>
       <c r="AL38" s="11">
-        <v>53161</v>
+        <v>56770</v>
       </c>
       <c r="AM38" s="11">
-        <v>90948</v>
+        <v>0</v>
       </c>
       <c r="AN38" s="11">
-        <v>56770</v>
+        <v>9051</v>
       </c>
       <c r="AO38" s="11">
-        <v>0</v>
+        <v>4686</v>
       </c>
       <c r="AP38" s="11">
-        <v>9051</v>
+        <v>54191</v>
       </c>
       <c r="AQ38" s="11">
-        <v>4686</v>
-      </c>
-      <c r="AR38" s="11">
-        <v>54191</v>
-      </c>
-      <c r="AS38" s="11">
         <v>9127</v>
       </c>
-      <c r="AT38" s="11">
-        <v>68293</v>
+      <c r="AR38" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS38" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT38" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU38" s="11" t="s">
         <v>57</v>
@@ -4591,11 +4591,11 @@
       <c r="AG39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI39" s="13" t="s">
-        <v>57</v>
+      <c r="AH39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="13">
+        <v>0</v>
       </c>
       <c r="AJ39" s="13">
         <v>0</v>
@@ -4604,13 +4604,13 @@
         <v>0</v>
       </c>
       <c r="AL39" s="13">
-        <v>0</v>
+        <v>650545</v>
       </c>
       <c r="AM39" s="13">
         <v>0</v>
       </c>
       <c r="AN39" s="13">
-        <v>650545</v>
+        <v>0</v>
       </c>
       <c r="AO39" s="13">
         <v>0</v>
@@ -4618,11 +4618,11 @@
       <c r="AP39" s="13">
         <v>0</v>
       </c>
-      <c r="AQ39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR39" s="13">
-        <v>0</v>
+      <c r="AQ39" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR39" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS39" s="13" t="s">
         <v>57</v>
@@ -4664,154 +4664,154 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>108484</v>
+        <v>188131</v>
       </c>
       <c r="F40" s="11">
-        <v>57177</v>
+        <v>260564</v>
       </c>
       <c r="G40" s="11">
-        <v>188131</v>
+        <v>194090</v>
       </c>
       <c r="H40" s="11">
-        <v>260564</v>
+        <v>189751</v>
       </c>
       <c r="I40" s="11">
-        <v>194090</v>
+        <v>218219</v>
       </c>
       <c r="J40" s="11">
-        <v>189751</v>
+        <v>204904</v>
       </c>
       <c r="K40" s="11">
-        <v>218219</v>
+        <v>265876</v>
       </c>
       <c r="L40" s="11">
-        <v>204904</v>
+        <v>161077</v>
       </c>
       <c r="M40" s="11">
-        <v>265876</v>
+        <v>183425</v>
       </c>
       <c r="N40" s="11">
-        <v>161077</v>
+        <v>180616</v>
       </c>
       <c r="O40" s="11">
-        <v>183425</v>
+        <v>327053</v>
       </c>
       <c r="P40" s="11">
-        <v>180616</v>
+        <v>173308</v>
       </c>
       <c r="Q40" s="11">
-        <v>327053</v>
+        <v>154662</v>
       </c>
       <c r="R40" s="11">
-        <v>173308</v>
+        <v>226815</v>
       </c>
       <c r="S40" s="11">
-        <v>154662</v>
+        <v>220067</v>
       </c>
       <c r="T40" s="11">
-        <v>226815</v>
+        <v>254709</v>
       </c>
       <c r="U40" s="11">
-        <v>220067</v>
+        <v>289254</v>
       </c>
       <c r="V40" s="11">
-        <v>254709</v>
+        <v>131853</v>
       </c>
       <c r="W40" s="11">
-        <v>289254</v>
+        <v>219405</v>
       </c>
       <c r="X40" s="11">
-        <v>131853</v>
+        <v>268807</v>
       </c>
       <c r="Y40" s="11">
-        <v>219405</v>
+        <v>186426</v>
       </c>
       <c r="Z40" s="11">
-        <v>268807</v>
+        <v>190338</v>
       </c>
       <c r="AA40" s="11">
-        <v>186426</v>
+        <v>428516</v>
       </c>
       <c r="AB40" s="11">
-        <v>190338</v>
+        <v>284035</v>
       </c>
       <c r="AC40" s="11">
-        <v>428516</v>
+        <v>281465</v>
       </c>
       <c r="AD40" s="11">
-        <v>284035</v>
+        <v>407924</v>
       </c>
       <c r="AE40" s="11">
-        <v>281465</v>
+        <v>320594</v>
       </c>
       <c r="AF40" s="11">
-        <v>407924</v>
+        <v>271461</v>
       </c>
       <c r="AG40" s="11">
-        <v>320594</v>
+        <v>391549</v>
       </c>
       <c r="AH40" s="11">
-        <v>271461</v>
+        <v>463301</v>
       </c>
       <c r="AI40" s="11">
-        <v>391549</v>
+        <v>679057</v>
       </c>
       <c r="AJ40" s="11">
-        <v>463301</v>
+        <v>501899</v>
       </c>
       <c r="AK40" s="11">
-        <v>679057</v>
+        <v>530788</v>
       </c>
       <c r="AL40" s="11">
-        <v>501899</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="11">
-        <v>530788</v>
+        <v>727509</v>
       </c>
       <c r="AN40" s="11">
-        <v>0</v>
+        <v>764159</v>
       </c>
       <c r="AO40" s="11">
-        <v>727509</v>
+        <v>576692</v>
       </c>
       <c r="AP40" s="11">
-        <v>764159</v>
+        <v>886465</v>
       </c>
       <c r="AQ40" s="11">
-        <v>576692</v>
+        <v>750990</v>
       </c>
       <c r="AR40" s="11">
-        <v>886465</v>
+        <v>7293258</v>
       </c>
       <c r="AS40" s="11">
-        <v>750990</v>
+        <v>714918</v>
       </c>
       <c r="AT40" s="11">
-        <v>693560</v>
+        <v>930752</v>
       </c>
       <c r="AU40" s="11">
-        <v>714918</v>
+        <v>1159894</v>
       </c>
       <c r="AV40" s="11">
-        <v>930752</v>
+        <v>1047653</v>
       </c>
       <c r="AW40" s="11">
-        <v>1159894</v>
+        <v>1039285</v>
       </c>
       <c r="AX40" s="11">
-        <v>1047653</v>
+        <v>870828</v>
       </c>
       <c r="AY40" s="11">
-        <v>1039285</v>
+        <v>877028</v>
       </c>
       <c r="AZ40" s="11">
-        <v>870828</v>
+        <v>749653</v>
       </c>
       <c r="BA40" s="11">
-        <v>877028</v>
+        <v>901932</v>
       </c>
       <c r="BB40" s="11">
-        <v>749653</v>
+        <v>1023275</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -4939,11 +4939,11 @@
       <c r="X42" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y42" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z42" s="17" t="s">
-        <v>57</v>
+      <c r="Y42" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="17">
+        <v>0</v>
       </c>
       <c r="AA42" s="17">
         <v>0</v>
@@ -5155,11 +5155,11 @@
       <c r="X44" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y44" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z44" s="11" t="s">
-        <v>57</v>
+      <c r="Y44" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="11">
+        <v>0</v>
       </c>
       <c r="AA44" s="11">
         <v>0</v>
@@ -5209,11 +5209,11 @@
       <c r="AP44" s="11">
         <v>0</v>
       </c>
-      <c r="AQ44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR44" s="11">
-        <v>0</v>
+      <c r="AQ44" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR44" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS44" s="11" t="s">
         <v>57</v>
@@ -5314,11 +5314,11 @@
       <c r="X45" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="Y45" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z45" s="19" t="s">
-        <v>57</v>
+      <c r="Y45" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="19">
+        <v>0</v>
       </c>
       <c r="AA45" s="19">
         <v>0</v>
@@ -5530,11 +5530,11 @@
       <c r="X47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z47" s="11" t="s">
-        <v>57</v>
+      <c r="Y47" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="11">
+        <v>0</v>
       </c>
       <c r="AA47" s="11">
         <v>0</v>
@@ -5628,154 +5628,154 @@
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19">
-        <v>108484</v>
+        <v>188131</v>
       </c>
       <c r="F48" s="19">
-        <v>57177</v>
+        <v>260564</v>
       </c>
       <c r="G48" s="19">
-        <v>188131</v>
+        <v>194090</v>
       </c>
       <c r="H48" s="19">
-        <v>260564</v>
+        <v>189751</v>
       </c>
       <c r="I48" s="19">
-        <v>194090</v>
+        <v>218219</v>
       </c>
       <c r="J48" s="19">
-        <v>189751</v>
+        <v>204904</v>
       </c>
       <c r="K48" s="19">
-        <v>218219</v>
+        <v>265876</v>
       </c>
       <c r="L48" s="19">
-        <v>204904</v>
+        <v>161077</v>
       </c>
       <c r="M48" s="19">
-        <v>265876</v>
+        <v>183425</v>
       </c>
       <c r="N48" s="19">
-        <v>161077</v>
+        <v>180616</v>
       </c>
       <c r="O48" s="19">
-        <v>183425</v>
+        <v>327053</v>
       </c>
       <c r="P48" s="19">
-        <v>180616</v>
+        <v>173308</v>
       </c>
       <c r="Q48" s="19">
-        <v>327053</v>
+        <v>154662</v>
       </c>
       <c r="R48" s="19">
-        <v>173308</v>
+        <v>226815</v>
       </c>
       <c r="S48" s="19">
-        <v>154662</v>
+        <v>220067</v>
       </c>
       <c r="T48" s="19">
-        <v>226815</v>
+        <v>254709</v>
       </c>
       <c r="U48" s="19">
-        <v>220067</v>
+        <v>289254</v>
       </c>
       <c r="V48" s="19">
-        <v>254709</v>
+        <v>131853</v>
       </c>
       <c r="W48" s="19">
-        <v>289254</v>
+        <v>219405</v>
       </c>
       <c r="X48" s="19">
-        <v>131853</v>
+        <v>268807</v>
       </c>
       <c r="Y48" s="19">
-        <v>219405</v>
+        <v>186426</v>
       </c>
       <c r="Z48" s="19">
-        <v>268807</v>
+        <v>190338</v>
       </c>
       <c r="AA48" s="19">
-        <v>186426</v>
+        <v>428516</v>
       </c>
       <c r="AB48" s="19">
-        <v>190338</v>
+        <v>284035</v>
       </c>
       <c r="AC48" s="19">
-        <v>428516</v>
+        <v>281465</v>
       </c>
       <c r="AD48" s="19">
-        <v>284035</v>
+        <v>407924</v>
       </c>
       <c r="AE48" s="19">
-        <v>281465</v>
+        <v>320594</v>
       </c>
       <c r="AF48" s="19">
-        <v>407924</v>
+        <v>271461</v>
       </c>
       <c r="AG48" s="19">
-        <v>320594</v>
+        <v>391549</v>
       </c>
       <c r="AH48" s="19">
-        <v>271461</v>
+        <v>463301</v>
       </c>
       <c r="AI48" s="19">
-        <v>391549</v>
+        <v>703076</v>
       </c>
       <c r="AJ48" s="19">
-        <v>463301</v>
+        <v>555060</v>
       </c>
       <c r="AK48" s="19">
-        <v>703076</v>
+        <v>621736</v>
       </c>
       <c r="AL48" s="19">
-        <v>555060</v>
+        <v>707315</v>
       </c>
       <c r="AM48" s="19">
-        <v>621736</v>
+        <v>727509</v>
       </c>
       <c r="AN48" s="19">
-        <v>707315</v>
+        <v>773210</v>
       </c>
       <c r="AO48" s="19">
-        <v>727509</v>
+        <v>581378</v>
       </c>
       <c r="AP48" s="19">
-        <v>773210</v>
+        <v>940656</v>
       </c>
       <c r="AQ48" s="19">
-        <v>581378</v>
+        <v>760117</v>
       </c>
       <c r="AR48" s="19">
-        <v>940656</v>
+        <v>7293258</v>
       </c>
       <c r="AS48" s="19">
-        <v>760117</v>
+        <v>714918</v>
       </c>
       <c r="AT48" s="19">
-        <v>761853</v>
+        <v>930752</v>
       </c>
       <c r="AU48" s="19">
-        <v>714918</v>
+        <v>1159894</v>
       </c>
       <c r="AV48" s="19">
-        <v>930752</v>
+        <v>1047653</v>
       </c>
       <c r="AW48" s="19">
-        <v>1159894</v>
+        <v>1039285</v>
       </c>
       <c r="AX48" s="19">
-        <v>1047653</v>
+        <v>870828</v>
       </c>
       <c r="AY48" s="19">
-        <v>1039285</v>
+        <v>877028</v>
       </c>
       <c r="AZ48" s="19">
-        <v>870828</v>
+        <v>749653</v>
       </c>
       <c r="BA48" s="19">
-        <v>877028</v>
+        <v>901932</v>
       </c>
       <c r="BB48" s="19">
-        <v>749653</v>
+        <v>1023275</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -6310,41 +6310,41 @@
       <c r="AH55" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ55" s="11" t="s">
-        <v>57</v>
+      <c r="AI55" s="11">
+        <v>252831579</v>
+      </c>
+      <c r="AJ55" s="11">
+        <v>242744292</v>
       </c>
       <c r="AK55" s="11">
-        <v>252831579</v>
+        <v>239968338</v>
       </c>
       <c r="AL55" s="11">
-        <v>242744292</v>
-      </c>
-      <c r="AM55" s="11">
-        <v>239968338</v>
+        <v>253437500</v>
+      </c>
+      <c r="AM55" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN55" s="11">
-        <v>253437500</v>
-      </c>
-      <c r="AO55" s="11" t="s">
-        <v>57</v>
+        <v>244621622</v>
+      </c>
+      <c r="AO55" s="11">
+        <v>246631579</v>
       </c>
       <c r="AP55" s="11">
-        <v>244621622</v>
+        <v>223008230</v>
       </c>
       <c r="AQ55" s="11">
-        <v>246631579</v>
-      </c>
-      <c r="AR55" s="11">
-        <v>223008230</v>
-      </c>
-      <c r="AS55" s="11">
         <v>234025641</v>
       </c>
-      <c r="AT55" s="11">
-        <v>226135762</v>
+      <c r="AR55" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS55" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT55" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU55" s="11" t="s">
         <v>57</v>
@@ -6478,14 +6478,14 @@
       <c r="AK56" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AL56" s="13" t="s">
-        <v>57</v>
+      <c r="AL56" s="13">
+        <v>241928226</v>
       </c>
       <c r="AM56" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN56" s="13">
-        <v>241928226</v>
+      <c r="AN56" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AO56" s="13" t="s">
         <v>57</v>
@@ -6539,154 +6539,154 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>68314861</v>
+        <v>98240731</v>
       </c>
       <c r="F57" s="11">
-        <v>98751295</v>
+        <v>98810770</v>
       </c>
       <c r="G57" s="11">
-        <v>98240731</v>
+        <v>98273418</v>
       </c>
       <c r="H57" s="11">
-        <v>98810770</v>
+        <v>96516277</v>
       </c>
       <c r="I57" s="11">
-        <v>98273418</v>
+        <v>93616045</v>
       </c>
       <c r="J57" s="11">
-        <v>96516277</v>
+        <v>92133094</v>
       </c>
       <c r="K57" s="11">
-        <v>93616045</v>
+        <v>94048815</v>
       </c>
       <c r="L57" s="11">
-        <v>92133094</v>
+        <v>97859660</v>
       </c>
       <c r="M57" s="11">
-        <v>94048815</v>
+        <v>105720461</v>
       </c>
       <c r="N57" s="11">
-        <v>97859660</v>
+        <v>112393279</v>
       </c>
       <c r="O57" s="11">
-        <v>105720461</v>
+        <v>112235072</v>
       </c>
       <c r="P57" s="11">
-        <v>112393279</v>
+        <v>98807298</v>
       </c>
       <c r="Q57" s="11">
-        <v>112235072</v>
+        <v>100040103</v>
       </c>
       <c r="R57" s="11">
-        <v>98807298</v>
+        <v>90508779</v>
       </c>
       <c r="S57" s="11">
-        <v>100040103</v>
+        <v>92078243</v>
       </c>
       <c r="T57" s="11">
-        <v>90508779</v>
+        <v>92453358</v>
       </c>
       <c r="U57" s="11">
-        <v>92078243</v>
+        <v>93307742</v>
       </c>
       <c r="V57" s="11">
-        <v>92453358</v>
+        <v>93182332</v>
       </c>
       <c r="W57" s="11">
-        <v>93307742</v>
+        <v>89152783</v>
       </c>
       <c r="X57" s="11">
-        <v>93182332</v>
+        <v>85416905</v>
       </c>
       <c r="Y57" s="11">
-        <v>89152783</v>
+        <v>86428373</v>
       </c>
       <c r="Z57" s="11">
-        <v>85416905</v>
+        <v>104696370</v>
       </c>
       <c r="AA57" s="11">
-        <v>86428373</v>
+        <v>114149174</v>
       </c>
       <c r="AB57" s="11">
-        <v>104696370</v>
+        <v>123332610</v>
       </c>
       <c r="AC57" s="11">
-        <v>114149174</v>
+        <v>138926456</v>
       </c>
       <c r="AD57" s="11">
-        <v>123332610</v>
+        <v>165688058</v>
       </c>
       <c r="AE57" s="11">
-        <v>138926456</v>
+        <v>181331448</v>
       </c>
       <c r="AF57" s="11">
-        <v>165688058</v>
+        <v>182925202</v>
       </c>
       <c r="AG57" s="11">
-        <v>181331448</v>
+        <v>204357516</v>
       </c>
       <c r="AH57" s="11">
-        <v>182925202</v>
+        <v>223385246</v>
       </c>
       <c r="AI57" s="11">
-        <v>204357516</v>
+        <v>229411149</v>
       </c>
       <c r="AJ57" s="11">
-        <v>223385246</v>
+        <v>228032258</v>
       </c>
       <c r="AK57" s="11">
-        <v>229411149</v>
-      </c>
-      <c r="AL57" s="11">
-        <v>228032258</v>
+        <v>232495839</v>
+      </c>
+      <c r="AL57" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AM57" s="11">
-        <v>232495839</v>
-      </c>
-      <c r="AN57" s="11" t="s">
-        <v>57</v>
+        <v>247367902</v>
+      </c>
+      <c r="AN57" s="11">
+        <v>261250940</v>
       </c>
       <c r="AO57" s="11">
-        <v>247367902</v>
+        <v>265267709</v>
       </c>
       <c r="AP57" s="11">
-        <v>261250940</v>
+        <v>265011958</v>
       </c>
       <c r="AQ57" s="11">
-        <v>265267709</v>
+        <v>266025505</v>
       </c>
       <c r="AR57" s="11">
-        <v>265011958</v>
+        <v>238323545</v>
       </c>
       <c r="AS57" s="11">
-        <v>266025505</v>
+        <v>290971917</v>
       </c>
       <c r="AT57" s="11">
-        <v>287664869</v>
+        <v>348726864</v>
       </c>
       <c r="AU57" s="11">
-        <v>290971917</v>
+        <v>398178510</v>
       </c>
       <c r="AV57" s="11">
-        <v>348726864</v>
+        <v>428838723</v>
       </c>
       <c r="AW57" s="11">
-        <v>398178510</v>
+        <v>428041598</v>
       </c>
       <c r="AX57" s="11">
-        <v>428838723</v>
+        <v>431530228</v>
       </c>
       <c r="AY57" s="11">
-        <v>428041598</v>
+        <v>415259470</v>
       </c>
       <c r="AZ57" s="11">
-        <v>431530228</v>
+        <v>367657185</v>
       </c>
       <c r="BA57" s="11">
-        <v>415259470</v>
+        <v>349721598</v>
       </c>
       <c r="BB57" s="11">
-        <v>367657185</v>
+        <v>352975164</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/dode/shedoos/product/monthly.xlsx
+++ b/database/industries/dode/shedoos/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\dode\shedoos\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shedoos\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371C90C6-A33C-45F8-83A3-EAD2B5C5273B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2988F2-B3AB-4377-A52C-31ECFBFF7779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="77">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شدوص-دوده‌ صنعتی‌ پارس‌</t>
@@ -37,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
-  </si>
-  <si>
     <t>ماه 10 منتهی به 1397/10</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>دوده صادراتی</t>
@@ -733,12 +733,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -793,7 +793,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -850,7 +850,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -907,7 +907,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -962,7 +962,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1019,7 +1019,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1076,7 +1076,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1131,7 +1131,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1343,7 +1343,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1400,7 +1400,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1489,11 +1489,11 @@
       <c r="AE11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG11" s="11" t="s">
-        <v>57</v>
+      <c r="AF11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>0</v>
       </c>
       <c r="AH11" s="11">
         <v>0</v>
@@ -1522,8 +1522,8 @@
       <c r="AP11" s="11">
         <v>0</v>
       </c>
-      <c r="AQ11" s="11">
-        <v>0</v>
+      <c r="AQ11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR11" s="11" t="s">
         <v>57</v>
@@ -1559,7 +1559,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1648,11 +1648,11 @@
       <c r="AE12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG12" s="13" t="s">
-        <v>57</v>
+      <c r="AF12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>0</v>
       </c>
       <c r="AH12" s="13">
         <v>0</v>
@@ -1661,13 +1661,13 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="13">
-        <v>0</v>
+        <v>2873</v>
       </c>
       <c r="AK12" s="13">
         <v>0</v>
       </c>
       <c r="AL12" s="13">
-        <v>2873</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="13">
         <v>0</v>
@@ -1675,11 +1675,11 @@
       <c r="AN12" s="13">
         <v>0</v>
       </c>
-      <c r="AO12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="13">
-        <v>0</v>
+      <c r="AO12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP12" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ12" s="13" t="s">
         <v>57</v>
@@ -1718,7 +1718,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1727,157 +1727,157 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>2661</v>
+        <v>2603</v>
       </c>
       <c r="F13" s="11">
-        <v>2736</v>
+        <v>2372</v>
       </c>
       <c r="G13" s="11">
-        <v>2603</v>
+        <v>2203</v>
       </c>
       <c r="H13" s="11">
-        <v>2372</v>
+        <v>1900</v>
       </c>
       <c r="I13" s="11">
-        <v>2203</v>
+        <v>2519</v>
       </c>
       <c r="J13" s="11">
-        <v>1900</v>
+        <v>2940</v>
       </c>
       <c r="K13" s="11">
-        <v>2519</v>
+        <v>2181</v>
       </c>
       <c r="L13" s="11">
-        <v>2940</v>
+        <v>2298</v>
       </c>
       <c r="M13" s="11">
-        <v>2181</v>
+        <v>1575</v>
       </c>
       <c r="N13" s="11">
-        <v>2298</v>
+        <v>1081</v>
       </c>
       <c r="O13" s="11">
-        <v>1575</v>
+        <v>2210</v>
       </c>
       <c r="P13" s="11">
-        <v>1081</v>
+        <v>2574</v>
       </c>
       <c r="Q13" s="11">
-        <v>2210</v>
+        <v>2530</v>
       </c>
       <c r="R13" s="11">
-        <v>2574</v>
+        <v>2324</v>
       </c>
       <c r="S13" s="11">
-        <v>2530</v>
+        <v>2112</v>
       </c>
       <c r="T13" s="11">
-        <v>2324</v>
+        <v>1050</v>
       </c>
       <c r="U13" s="11">
-        <v>2112</v>
+        <v>2457</v>
       </c>
       <c r="V13" s="11">
-        <v>1050</v>
+        <v>3065</v>
       </c>
       <c r="W13" s="11">
-        <v>2457</v>
+        <v>2437</v>
       </c>
       <c r="X13" s="11">
-        <v>3065</v>
+        <v>2209</v>
       </c>
       <c r="Y13" s="11">
-        <v>2437</v>
+        <v>2374</v>
       </c>
       <c r="Z13" s="11">
-        <v>2209</v>
+        <v>2253</v>
       </c>
       <c r="AA13" s="11">
-        <v>2374</v>
+        <v>1716</v>
       </c>
       <c r="AB13" s="11">
-        <v>2253</v>
+        <v>2192</v>
       </c>
       <c r="AC13" s="11">
-        <v>1716</v>
+        <v>1585</v>
       </c>
       <c r="AD13" s="11">
-        <v>2192</v>
+        <v>1622</v>
       </c>
       <c r="AE13" s="11">
-        <v>1585</v>
+        <v>2385</v>
       </c>
       <c r="AF13" s="11">
-        <v>1622</v>
+        <v>2057</v>
       </c>
       <c r="AG13" s="11">
-        <v>2385</v>
+        <v>3170</v>
       </c>
       <c r="AH13" s="11">
-        <v>2057</v>
+        <v>2426</v>
       </c>
       <c r="AI13" s="11">
-        <v>3170</v>
+        <v>2697</v>
       </c>
       <c r="AJ13" s="11">
-        <v>2426</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="11">
-        <v>2697</v>
+        <v>2743</v>
       </c>
       <c r="AL13" s="11">
-        <v>0</v>
+        <v>3033</v>
       </c>
       <c r="AM13" s="11">
-        <v>2743</v>
+        <v>3020</v>
       </c>
       <c r="AN13" s="11">
-        <v>3033</v>
+        <v>3000</v>
       </c>
       <c r="AO13" s="11">
-        <v>3020</v>
+        <v>3037</v>
       </c>
       <c r="AP13" s="11">
-        <v>3000</v>
+        <v>2950</v>
       </c>
       <c r="AQ13" s="11">
-        <v>3037</v>
+        <v>2006</v>
       </c>
       <c r="AR13" s="11">
-        <v>31006</v>
+        <v>2942</v>
       </c>
       <c r="AS13" s="11">
-        <v>2006</v>
+        <v>2784</v>
       </c>
       <c r="AT13" s="11">
-        <v>2942</v>
+        <v>2412</v>
       </c>
       <c r="AU13" s="11">
-        <v>2784</v>
+        <v>2274</v>
       </c>
       <c r="AV13" s="11">
-        <v>2412</v>
+        <v>2718</v>
       </c>
       <c r="AW13" s="11">
-        <v>2274</v>
+        <v>2251</v>
       </c>
       <c r="AX13" s="11">
-        <v>2718</v>
+        <v>2396</v>
       </c>
       <c r="AY13" s="11">
-        <v>2251</v>
+        <v>2312</v>
       </c>
       <c r="AZ13" s="11">
-        <v>2396</v>
+        <v>2590</v>
       </c>
       <c r="BA13" s="11">
-        <v>2312</v>
+        <v>1697</v>
       </c>
       <c r="BB13" s="11">
-        <v>2594</v>
+        <v>1925</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>61</v>
       </c>
@@ -1934,7 +1934,7 @@
       <c r="BA14" s="15"/>
       <c r="BB14" s="15"/>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>62</v>
       </c>
@@ -1994,11 +1994,11 @@
       <c r="V15" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X15" s="17" t="s">
-        <v>57</v>
+      <c r="W15" s="17">
+        <v>0</v>
+      </c>
+      <c r="X15" s="17">
+        <v>0</v>
       </c>
       <c r="Y15" s="17">
         <v>0</v>
@@ -2091,164 +2091,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19">
-        <v>2661</v>
+        <v>2603</v>
       </c>
       <c r="F16" s="19">
-        <v>2736</v>
+        <v>2372</v>
       </c>
       <c r="G16" s="19">
-        <v>2603</v>
+        <v>2203</v>
       </c>
       <c r="H16" s="19">
-        <v>2372</v>
+        <v>1900</v>
       </c>
       <c r="I16" s="19">
-        <v>2203</v>
+        <v>2519</v>
       </c>
       <c r="J16" s="19">
-        <v>1900</v>
+        <v>2940</v>
       </c>
       <c r="K16" s="19">
-        <v>2519</v>
+        <v>2181</v>
       </c>
       <c r="L16" s="19">
-        <v>2940</v>
+        <v>2298</v>
       </c>
       <c r="M16" s="19">
-        <v>2181</v>
+        <v>1575</v>
       </c>
       <c r="N16" s="19">
-        <v>2298</v>
+        <v>1081</v>
       </c>
       <c r="O16" s="19">
-        <v>1575</v>
+        <v>2210</v>
       </c>
       <c r="P16" s="19">
-        <v>1081</v>
+        <v>2574</v>
       </c>
       <c r="Q16" s="19">
-        <v>2210</v>
+        <v>2530</v>
       </c>
       <c r="R16" s="19">
-        <v>2574</v>
+        <v>2324</v>
       </c>
       <c r="S16" s="19">
-        <v>2530</v>
+        <v>2112</v>
       </c>
       <c r="T16" s="19">
-        <v>2324</v>
+        <v>1050</v>
       </c>
       <c r="U16" s="19">
-        <v>2112</v>
+        <v>2457</v>
       </c>
       <c r="V16" s="19">
-        <v>1050</v>
+        <v>3065</v>
       </c>
       <c r="W16" s="19">
-        <v>2457</v>
+        <v>2437</v>
       </c>
       <c r="X16" s="19">
-        <v>3065</v>
+        <v>2209</v>
       </c>
       <c r="Y16" s="19">
-        <v>2437</v>
+        <v>2374</v>
       </c>
       <c r="Z16" s="19">
-        <v>2209</v>
+        <v>2253</v>
       </c>
       <c r="AA16" s="19">
-        <v>2374</v>
+        <v>1716</v>
       </c>
       <c r="AB16" s="19">
-        <v>2253</v>
+        <v>2192</v>
       </c>
       <c r="AC16" s="19">
-        <v>1716</v>
+        <v>1585</v>
       </c>
       <c r="AD16" s="19">
-        <v>2192</v>
+        <v>1622</v>
       </c>
       <c r="AE16" s="19">
-        <v>1585</v>
+        <v>2385</v>
       </c>
       <c r="AF16" s="19">
-        <v>1622</v>
+        <v>2057</v>
       </c>
       <c r="AG16" s="19">
-        <v>2385</v>
+        <v>3170</v>
       </c>
       <c r="AH16" s="19">
-        <v>2057</v>
+        <v>2426</v>
       </c>
       <c r="AI16" s="19">
-        <v>3170</v>
+        <v>2697</v>
       </c>
       <c r="AJ16" s="19">
-        <v>2426</v>
+        <v>2873</v>
       </c>
       <c r="AK16" s="19">
-        <v>2697</v>
+        <v>2743</v>
       </c>
       <c r="AL16" s="19">
-        <v>2873</v>
+        <v>3033</v>
       </c>
       <c r="AM16" s="19">
-        <v>2743</v>
+        <v>3020</v>
       </c>
       <c r="AN16" s="19">
-        <v>3033</v>
+        <v>3000</v>
       </c>
       <c r="AO16" s="19">
-        <v>3020</v>
+        <v>3037</v>
       </c>
       <c r="AP16" s="19">
-        <v>3000</v>
+        <v>2950</v>
       </c>
       <c r="AQ16" s="19">
-        <v>3037</v>
+        <v>2006</v>
       </c>
       <c r="AR16" s="19">
-        <v>31006</v>
+        <v>2942</v>
       </c>
       <c r="AS16" s="19">
-        <v>2006</v>
+        <v>2784</v>
       </c>
       <c r="AT16" s="19">
-        <v>2942</v>
+        <v>2412</v>
       </c>
       <c r="AU16" s="19">
-        <v>2784</v>
+        <v>2274</v>
       </c>
       <c r="AV16" s="19">
-        <v>2412</v>
+        <v>2718</v>
       </c>
       <c r="AW16" s="19">
-        <v>2274</v>
+        <v>2251</v>
       </c>
       <c r="AX16" s="19">
-        <v>2718</v>
+        <v>2396</v>
       </c>
       <c r="AY16" s="19">
-        <v>2251</v>
+        <v>2312</v>
       </c>
       <c r="AZ16" s="19">
-        <v>2396</v>
+        <v>2590</v>
       </c>
       <c r="BA16" s="19">
-        <v>2312</v>
+        <v>1697</v>
       </c>
       <c r="BB16" s="19">
-        <v>2594</v>
+        <v>1925</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2303,7 +2303,7 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2358,7 +2358,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2413,7 +2413,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>64</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2625,7 +2625,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>64</v>
       </c>
@@ -2682,7 +2682,7 @@
       <c r="BA22" s="9"/>
       <c r="BB22" s="9"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>55</v>
       </c>
@@ -2771,41 +2771,41 @@
       <c r="AE23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG23" s="11" t="s">
-        <v>57</v>
+      <c r="AF23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="11">
+        <v>95</v>
       </c>
       <c r="AH23" s="11">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="AI23" s="11">
-        <v>95</v>
+        <v>379</v>
       </c>
       <c r="AJ23" s="11">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AK23" s="11">
-        <v>379</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="11">
-        <v>224</v>
+        <v>37</v>
       </c>
       <c r="AM23" s="11">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AN23" s="11">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="AO23" s="11">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="AP23" s="11">
-        <v>243</v>
-      </c>
-      <c r="AQ23" s="11">
-        <v>39</v>
+        <v>302</v>
+      </c>
+      <c r="AQ23" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR23" s="11" t="s">
         <v>57</v>
@@ -2841,7 +2841,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>58</v>
       </c>
@@ -2930,11 +2930,11 @@
       <c r="AE24" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG24" s="13" t="s">
-        <v>57</v>
+      <c r="AF24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="13">
+        <v>0</v>
       </c>
       <c r="AH24" s="13">
         <v>0</v>
@@ -2943,13 +2943,13 @@
         <v>0</v>
       </c>
       <c r="AJ24" s="13">
-        <v>0</v>
+        <v>2689</v>
       </c>
       <c r="AK24" s="13">
         <v>0</v>
       </c>
       <c r="AL24" s="13">
-        <v>2689</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="13">
         <v>0</v>
@@ -2957,11 +2957,11 @@
       <c r="AN24" s="13">
         <v>0</v>
       </c>
-      <c r="AO24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP24" s="13">
-        <v>0</v>
+      <c r="AO24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP24" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ24" s="13" t="s">
         <v>57</v>
@@ -3000,7 +3000,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>59</v>
       </c>
@@ -3009,157 +3009,157 @@
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11">
-        <v>1915</v>
+        <v>1975</v>
       </c>
       <c r="F25" s="11">
-        <v>2637</v>
+        <v>1966</v>
       </c>
       <c r="G25" s="11">
-        <v>1975</v>
+        <v>2331</v>
       </c>
       <c r="H25" s="11">
-        <v>1966</v>
+        <v>2224</v>
       </c>
       <c r="I25" s="11">
-        <v>2331</v>
+        <v>2827</v>
       </c>
       <c r="J25" s="11">
-        <v>2224</v>
+        <v>1646</v>
       </c>
       <c r="K25" s="11">
-        <v>2827</v>
+        <v>1735</v>
       </c>
       <c r="L25" s="11">
-        <v>1646</v>
+        <v>1607</v>
       </c>
       <c r="M25" s="11">
-        <v>1735</v>
+        <v>2914</v>
       </c>
       <c r="N25" s="11">
-        <v>1607</v>
+        <v>1754</v>
       </c>
       <c r="O25" s="11">
-        <v>2914</v>
+        <v>1546</v>
       </c>
       <c r="P25" s="11">
-        <v>1754</v>
+        <v>2506</v>
       </c>
       <c r="Q25" s="11">
-        <v>1546</v>
+        <v>2390</v>
       </c>
       <c r="R25" s="11">
-        <v>2506</v>
+        <v>2755</v>
       </c>
       <c r="S25" s="11">
-        <v>2390</v>
+        <v>3100</v>
       </c>
       <c r="T25" s="11">
-        <v>2755</v>
+        <v>1415</v>
       </c>
       <c r="U25" s="11">
-        <v>3100</v>
+        <v>2461</v>
       </c>
       <c r="V25" s="11">
-        <v>1415</v>
+        <v>3147</v>
       </c>
       <c r="W25" s="11">
-        <v>2461</v>
+        <v>2157</v>
       </c>
       <c r="X25" s="11">
-        <v>3147</v>
+        <v>1818</v>
       </c>
       <c r="Y25" s="11">
-        <v>2157</v>
+        <v>3754</v>
       </c>
       <c r="Z25" s="11">
-        <v>1818</v>
+        <v>2303</v>
       </c>
       <c r="AA25" s="11">
-        <v>3754</v>
+        <v>2026</v>
       </c>
       <c r="AB25" s="11">
-        <v>2303</v>
+        <v>2462</v>
       </c>
       <c r="AC25" s="11">
-        <v>2026</v>
+        <v>1768</v>
       </c>
       <c r="AD25" s="11">
-        <v>2462</v>
+        <v>1484</v>
       </c>
       <c r="AE25" s="11">
-        <v>1768</v>
+        <v>1916</v>
       </c>
       <c r="AF25" s="11">
-        <v>1484</v>
+        <v>2074</v>
       </c>
       <c r="AG25" s="11">
-        <v>1916</v>
+        <v>2960</v>
       </c>
       <c r="AH25" s="11">
-        <v>2074</v>
+        <v>2201</v>
       </c>
       <c r="AI25" s="11">
-        <v>2960</v>
+        <v>2283</v>
       </c>
       <c r="AJ25" s="11">
-        <v>2201</v>
+        <v>0</v>
       </c>
       <c r="AK25" s="11">
-        <v>2283</v>
+        <v>2941</v>
       </c>
       <c r="AL25" s="11">
-        <v>0</v>
+        <v>2925</v>
       </c>
       <c r="AM25" s="11">
-        <v>2941</v>
+        <v>2174</v>
       </c>
       <c r="AN25" s="11">
-        <v>2925</v>
+        <v>3345</v>
       </c>
       <c r="AO25" s="11">
-        <v>2174</v>
+        <v>2823</v>
       </c>
       <c r="AP25" s="11">
-        <v>3345</v>
+        <v>2411</v>
       </c>
       <c r="AQ25" s="11">
-        <v>2823</v>
+        <v>2457</v>
       </c>
       <c r="AR25" s="11">
-        <v>29128</v>
+        <v>2669</v>
       </c>
       <c r="AS25" s="11">
-        <v>2457</v>
+        <v>2913</v>
       </c>
       <c r="AT25" s="11">
-        <v>2669</v>
+        <v>2443</v>
       </c>
       <c r="AU25" s="11">
-        <v>2913</v>
+        <v>2428</v>
       </c>
       <c r="AV25" s="11">
-        <v>2443</v>
+        <v>2018</v>
       </c>
       <c r="AW25" s="11">
-        <v>2428</v>
+        <v>2112</v>
       </c>
       <c r="AX25" s="11">
-        <v>2018</v>
+        <v>2039</v>
       </c>
       <c r="AY25" s="11">
-        <v>2112</v>
+        <v>2579</v>
       </c>
       <c r="AZ25" s="11">
-        <v>2039</v>
+        <v>2899</v>
       </c>
       <c r="BA25" s="11">
-        <v>2579</v>
+        <v>1909</v>
       </c>
       <c r="BB25" s="11">
-        <v>2899</v>
+        <v>2066</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>61</v>
       </c>
@@ -3216,7 +3216,7 @@
       <c r="BA26" s="15"/>
       <c r="BB26" s="15"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
         <v>62</v>
       </c>
@@ -3276,11 +3276,11 @@
       <c r="V27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W27" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X27" s="17" t="s">
-        <v>57</v>
+      <c r="W27" s="17">
+        <v>0</v>
+      </c>
+      <c r="X27" s="17">
+        <v>0</v>
       </c>
       <c r="Y27" s="17">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>65</v>
       </c>
@@ -3430,7 +3430,7 @@
       <c r="BA28" s="9"/>
       <c r="BB28" s="9"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>59</v>
       </c>
@@ -3492,11 +3492,11 @@
       <c r="V29" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X29" s="11" t="s">
-        <v>57</v>
+      <c r="W29" s="11">
+        <v>0</v>
+      </c>
+      <c r="X29" s="11">
+        <v>0</v>
       </c>
       <c r="Y29" s="11">
         <v>0</v>
@@ -3522,11 +3522,11 @@
       <c r="AF29" s="11">
         <v>0</v>
       </c>
-      <c r="AG29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="11">
-        <v>0</v>
+      <c r="AG29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH29" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI29" s="11" t="s">
         <v>57</v>
@@ -3589,7 +3589,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="s">
         <v>66</v>
       </c>
@@ -3649,11 +3649,11 @@
       <c r="V30" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="W30" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="X30" s="19" t="s">
-        <v>57</v>
+      <c r="W30" s="19">
+        <v>0</v>
+      </c>
+      <c r="X30" s="19">
+        <v>0</v>
       </c>
       <c r="Y30" s="19">
         <v>0</v>
@@ -3746,164 +3746,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="17">
-        <v>1915</v>
+        <v>1975</v>
       </c>
       <c r="F31" s="17">
-        <v>2637</v>
+        <v>1966</v>
       </c>
       <c r="G31" s="17">
-        <v>1975</v>
+        <v>2331</v>
       </c>
       <c r="H31" s="17">
-        <v>1966</v>
+        <v>2224</v>
       </c>
       <c r="I31" s="17">
-        <v>2331</v>
+        <v>2827</v>
       </c>
       <c r="J31" s="17">
-        <v>2224</v>
+        <v>1646</v>
       </c>
       <c r="K31" s="17">
-        <v>2827</v>
+        <v>1735</v>
       </c>
       <c r="L31" s="17">
-        <v>1646</v>
+        <v>1607</v>
       </c>
       <c r="M31" s="17">
-        <v>1735</v>
+        <v>2914</v>
       </c>
       <c r="N31" s="17">
-        <v>1607</v>
+        <v>1754</v>
       </c>
       <c r="O31" s="17">
-        <v>2914</v>
+        <v>1546</v>
       </c>
       <c r="P31" s="17">
-        <v>1754</v>
+        <v>2506</v>
       </c>
       <c r="Q31" s="17">
-        <v>1546</v>
+        <v>2390</v>
       </c>
       <c r="R31" s="17">
-        <v>2506</v>
+        <v>2755</v>
       </c>
       <c r="S31" s="17">
-        <v>2390</v>
+        <v>3100</v>
       </c>
       <c r="T31" s="17">
-        <v>2755</v>
+        <v>1415</v>
       </c>
       <c r="U31" s="17">
-        <v>3100</v>
+        <v>2461</v>
       </c>
       <c r="V31" s="17">
-        <v>1415</v>
+        <v>3147</v>
       </c>
       <c r="W31" s="17">
-        <v>2461</v>
+        <v>2157</v>
       </c>
       <c r="X31" s="17">
-        <v>3147</v>
+        <v>1818</v>
       </c>
       <c r="Y31" s="17">
-        <v>2157</v>
+        <v>3754</v>
       </c>
       <c r="Z31" s="17">
-        <v>1818</v>
+        <v>2303</v>
       </c>
       <c r="AA31" s="17">
-        <v>3754</v>
+        <v>2026</v>
       </c>
       <c r="AB31" s="17">
-        <v>2303</v>
+        <v>2462</v>
       </c>
       <c r="AC31" s="17">
-        <v>2026</v>
+        <v>1768</v>
       </c>
       <c r="AD31" s="17">
-        <v>2462</v>
+        <v>1484</v>
       </c>
       <c r="AE31" s="17">
-        <v>1768</v>
+        <v>1916</v>
       </c>
       <c r="AF31" s="17">
-        <v>1484</v>
+        <v>2074</v>
       </c>
       <c r="AG31" s="17">
-        <v>1916</v>
+        <v>3055</v>
       </c>
       <c r="AH31" s="17">
-        <v>2074</v>
+        <v>2420</v>
       </c>
       <c r="AI31" s="17">
-        <v>3055</v>
+        <v>2662</v>
       </c>
       <c r="AJ31" s="17">
-        <v>2420</v>
+        <v>2913</v>
       </c>
       <c r="AK31" s="17">
-        <v>2662</v>
+        <v>2941</v>
       </c>
       <c r="AL31" s="17">
+        <v>2962</v>
+      </c>
+      <c r="AM31" s="17">
+        <v>2193</v>
+      </c>
+      <c r="AN31" s="17">
+        <v>3588</v>
+      </c>
+      <c r="AO31" s="17">
+        <v>2862</v>
+      </c>
+      <c r="AP31" s="17">
+        <v>2713</v>
+      </c>
+      <c r="AQ31" s="17">
+        <v>2457</v>
+      </c>
+      <c r="AR31" s="17">
+        <v>2669</v>
+      </c>
+      <c r="AS31" s="17">
         <v>2913</v>
       </c>
-      <c r="AM31" s="17">
-        <v>2941</v>
-      </c>
-      <c r="AN31" s="17">
-        <v>2962</v>
-      </c>
-      <c r="AO31" s="17">
-        <v>2193</v>
-      </c>
-      <c r="AP31" s="17">
-        <v>3588</v>
-      </c>
-      <c r="AQ31" s="17">
-        <v>2862</v>
-      </c>
-      <c r="AR31" s="17">
-        <v>29128</v>
-      </c>
-      <c r="AS31" s="17">
-        <v>2457</v>
-      </c>
       <c r="AT31" s="17">
-        <v>2669</v>
+        <v>2443</v>
       </c>
       <c r="AU31" s="17">
-        <v>2913</v>
+        <v>2428</v>
       </c>
       <c r="AV31" s="17">
-        <v>2443</v>
+        <v>2018</v>
       </c>
       <c r="AW31" s="17">
-        <v>2428</v>
+        <v>2112</v>
       </c>
       <c r="AX31" s="17">
-        <v>2018</v>
+        <v>2039</v>
       </c>
       <c r="AY31" s="17">
-        <v>2112</v>
+        <v>2579</v>
       </c>
       <c r="AZ31" s="17">
-        <v>2039</v>
+        <v>2899</v>
       </c>
       <c r="BA31" s="17">
-        <v>2579</v>
+        <v>1909</v>
       </c>
       <c r="BB31" s="17">
-        <v>2899</v>
+        <v>2066</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -3958,7 +3958,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4013,7 +4013,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -4068,7 +4068,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>67</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -4280,7 +4280,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>67</v>
       </c>
@@ -4337,7 +4337,7 @@
       <c r="BA37" s="9"/>
       <c r="BB37" s="9"/>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>55</v>
       </c>
@@ -4426,41 +4426,41 @@
       <c r="AE38" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG38" s="11" t="s">
-        <v>57</v>
+      <c r="AF38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="11">
+        <v>24019</v>
       </c>
       <c r="AH38" s="11">
-        <v>0</v>
+        <v>53161</v>
       </c>
       <c r="AI38" s="11">
-        <v>24019</v>
+        <v>90948</v>
       </c>
       <c r="AJ38" s="11">
-        <v>53161</v>
+        <v>56770</v>
       </c>
       <c r="AK38" s="11">
-        <v>90948</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="11">
-        <v>56770</v>
+        <v>9051</v>
       </c>
       <c r="AM38" s="11">
-        <v>0</v>
+        <v>4686</v>
       </c>
       <c r="AN38" s="11">
-        <v>9051</v>
+        <v>54191</v>
       </c>
       <c r="AO38" s="11">
-        <v>4686</v>
+        <v>9127</v>
       </c>
       <c r="AP38" s="11">
-        <v>54191</v>
-      </c>
-      <c r="AQ38" s="11">
-        <v>9127</v>
+        <v>68293</v>
+      </c>
+      <c r="AQ38" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR38" s="11" t="s">
         <v>57</v>
@@ -4496,7 +4496,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>58</v>
       </c>
@@ -4585,11 +4585,11 @@
       <c r="AE39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG39" s="13" t="s">
-        <v>57</v>
+      <c r="AF39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="13">
+        <v>0</v>
       </c>
       <c r="AH39" s="13">
         <v>0</v>
@@ -4598,13 +4598,13 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="13">
-        <v>0</v>
+        <v>650545</v>
       </c>
       <c r="AK39" s="13">
         <v>0</v>
       </c>
       <c r="AL39" s="13">
-        <v>650545</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="13">
         <v>0</v>
@@ -4612,11 +4612,11 @@
       <c r="AN39" s="13">
         <v>0</v>
       </c>
-      <c r="AO39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP39" s="13">
-        <v>0</v>
+      <c r="AO39" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP39" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ39" s="13" t="s">
         <v>57</v>
@@ -4655,7 +4655,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>59</v>
       </c>
@@ -4664,157 +4664,157 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>188131</v>
+        <v>194090</v>
       </c>
       <c r="F40" s="11">
-        <v>260564</v>
+        <v>189751</v>
       </c>
       <c r="G40" s="11">
-        <v>194090</v>
+        <v>218219</v>
       </c>
       <c r="H40" s="11">
-        <v>189751</v>
+        <v>204904</v>
       </c>
       <c r="I40" s="11">
-        <v>218219</v>
+        <v>265876</v>
       </c>
       <c r="J40" s="11">
-        <v>204904</v>
+        <v>161077</v>
       </c>
       <c r="K40" s="11">
-        <v>265876</v>
+        <v>183425</v>
       </c>
       <c r="L40" s="11">
-        <v>161077</v>
+        <v>180616</v>
       </c>
       <c r="M40" s="11">
-        <v>183425</v>
+        <v>327053</v>
       </c>
       <c r="N40" s="11">
-        <v>180616</v>
+        <v>173308</v>
       </c>
       <c r="O40" s="11">
-        <v>327053</v>
+        <v>154662</v>
       </c>
       <c r="P40" s="11">
-        <v>173308</v>
+        <v>226815</v>
       </c>
       <c r="Q40" s="11">
-        <v>154662</v>
+        <v>220067</v>
       </c>
       <c r="R40" s="11">
-        <v>226815</v>
+        <v>254709</v>
       </c>
       <c r="S40" s="11">
-        <v>220067</v>
+        <v>289254</v>
       </c>
       <c r="T40" s="11">
-        <v>254709</v>
+        <v>131853</v>
       </c>
       <c r="U40" s="11">
-        <v>289254</v>
+        <v>219405</v>
       </c>
       <c r="V40" s="11">
-        <v>131853</v>
+        <v>268807</v>
       </c>
       <c r="W40" s="11">
-        <v>219405</v>
+        <v>186426</v>
       </c>
       <c r="X40" s="11">
-        <v>268807</v>
+        <v>190338</v>
       </c>
       <c r="Y40" s="11">
-        <v>186426</v>
+        <v>428516</v>
       </c>
       <c r="Z40" s="11">
-        <v>190338</v>
+        <v>284035</v>
       </c>
       <c r="AA40" s="11">
-        <v>428516</v>
+        <v>281465</v>
       </c>
       <c r="AB40" s="11">
-        <v>284035</v>
+        <v>407924</v>
       </c>
       <c r="AC40" s="11">
-        <v>281465</v>
+        <v>320594</v>
       </c>
       <c r="AD40" s="11">
-        <v>407924</v>
+        <v>271461</v>
       </c>
       <c r="AE40" s="11">
-        <v>320594</v>
+        <v>391549</v>
       </c>
       <c r="AF40" s="11">
-        <v>271461</v>
+        <v>463301</v>
       </c>
       <c r="AG40" s="11">
-        <v>391549</v>
+        <v>679057</v>
       </c>
       <c r="AH40" s="11">
-        <v>463301</v>
+        <v>501899</v>
       </c>
       <c r="AI40" s="11">
-        <v>679057</v>
+        <v>530788</v>
       </c>
       <c r="AJ40" s="11">
-        <v>501899</v>
+        <v>0</v>
       </c>
       <c r="AK40" s="11">
-        <v>530788</v>
+        <v>727509</v>
       </c>
       <c r="AL40" s="11">
-        <v>0</v>
+        <v>764159</v>
       </c>
       <c r="AM40" s="11">
-        <v>727509</v>
+        <v>576692</v>
       </c>
       <c r="AN40" s="11">
-        <v>764159</v>
+        <v>886465</v>
       </c>
       <c r="AO40" s="11">
-        <v>576692</v>
+        <v>750990</v>
       </c>
       <c r="AP40" s="11">
-        <v>886465</v>
+        <v>693560</v>
       </c>
       <c r="AQ40" s="11">
-        <v>750990</v>
+        <v>714918</v>
       </c>
       <c r="AR40" s="11">
-        <v>7293258</v>
+        <v>930752</v>
       </c>
       <c r="AS40" s="11">
-        <v>714918</v>
+        <v>1159894</v>
       </c>
       <c r="AT40" s="11">
-        <v>930752</v>
+        <v>1047653</v>
       </c>
       <c r="AU40" s="11">
-        <v>1159894</v>
+        <v>1039285</v>
       </c>
       <c r="AV40" s="11">
-        <v>1047653</v>
+        <v>870828</v>
       </c>
       <c r="AW40" s="11">
-        <v>1039285</v>
+        <v>877028</v>
       </c>
       <c r="AX40" s="11">
-        <v>870828</v>
+        <v>749653</v>
       </c>
       <c r="AY40" s="11">
-        <v>877028</v>
+        <v>901932</v>
       </c>
       <c r="AZ40" s="11">
-        <v>749653</v>
+        <v>1024056</v>
       </c>
       <c r="BA40" s="11">
-        <v>901932</v>
+        <v>658833</v>
       </c>
       <c r="BB40" s="11">
-        <v>1023275</v>
+        <v>711130</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
         <v>69</v>
       </c>
@@ -4871,7 +4871,7 @@
       <c r="BA41" s="15"/>
       <c r="BB41" s="15"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
         <v>62</v>
       </c>
@@ -4933,11 +4933,11 @@
       <c r="V42" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W42" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X42" s="17" t="s">
-        <v>57</v>
+      <c r="W42" s="17">
+        <v>0</v>
+      </c>
+      <c r="X42" s="17">
+        <v>0</v>
       </c>
       <c r="Y42" s="17">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
         <v>70</v>
       </c>
@@ -5087,7 +5087,7 @@
       <c r="BA43" s="9"/>
       <c r="BB43" s="9"/>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>59</v>
       </c>
@@ -5149,11 +5149,11 @@
       <c r="V44" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W44" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X44" s="11" t="s">
-        <v>57</v>
+      <c r="W44" s="11">
+        <v>0</v>
+      </c>
+      <c r="X44" s="11">
+        <v>0</v>
       </c>
       <c r="Y44" s="11">
         <v>0</v>
@@ -5203,11 +5203,11 @@
       <c r="AN44" s="11">
         <v>0</v>
       </c>
-      <c r="AO44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP44" s="11">
-        <v>0</v>
+      <c r="AO44" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP44" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AQ44" s="11" t="s">
         <v>57</v>
@@ -5246,7 +5246,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>66</v>
       </c>
@@ -5308,11 +5308,11 @@
       <c r="V45" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="W45" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="X45" s="19" t="s">
-        <v>57</v>
+      <c r="W45" s="19">
+        <v>0</v>
+      </c>
+      <c r="X45" s="19">
+        <v>0</v>
       </c>
       <c r="Y45" s="19">
         <v>0</v>
@@ -5405,7 +5405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>71</v>
       </c>
@@ -5462,7 +5462,7 @@
       <c r="BA46" s="9"/>
       <c r="BB46" s="9"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>72</v>
       </c>
@@ -5524,11 +5524,11 @@
       <c r="V47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X47" s="11" t="s">
-        <v>57</v>
+      <c r="W47" s="11">
+        <v>0</v>
+      </c>
+      <c r="X47" s="11">
+        <v>0</v>
       </c>
       <c r="Y47" s="11">
         <v>0</v>
@@ -5621,164 +5621,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19">
-        <v>188131</v>
+        <v>194090</v>
       </c>
       <c r="F48" s="19">
-        <v>260564</v>
+        <v>189751</v>
       </c>
       <c r="G48" s="19">
-        <v>194090</v>
+        <v>218219</v>
       </c>
       <c r="H48" s="19">
-        <v>189751</v>
+        <v>204904</v>
       </c>
       <c r="I48" s="19">
-        <v>218219</v>
+        <v>265876</v>
       </c>
       <c r="J48" s="19">
-        <v>204904</v>
+        <v>161077</v>
       </c>
       <c r="K48" s="19">
-        <v>265876</v>
+        <v>183425</v>
       </c>
       <c r="L48" s="19">
-        <v>161077</v>
+        <v>180616</v>
       </c>
       <c r="M48" s="19">
-        <v>183425</v>
+        <v>327053</v>
       </c>
       <c r="N48" s="19">
-        <v>180616</v>
+        <v>173308</v>
       </c>
       <c r="O48" s="19">
-        <v>327053</v>
+        <v>154662</v>
       </c>
       <c r="P48" s="19">
-        <v>173308</v>
+        <v>226815</v>
       </c>
       <c r="Q48" s="19">
-        <v>154662</v>
+        <v>220067</v>
       </c>
       <c r="R48" s="19">
-        <v>226815</v>
+        <v>254709</v>
       </c>
       <c r="S48" s="19">
-        <v>220067</v>
+        <v>289254</v>
       </c>
       <c r="T48" s="19">
-        <v>254709</v>
+        <v>131853</v>
       </c>
       <c r="U48" s="19">
-        <v>289254</v>
+        <v>219405</v>
       </c>
       <c r="V48" s="19">
-        <v>131853</v>
+        <v>268807</v>
       </c>
       <c r="W48" s="19">
-        <v>219405</v>
+        <v>186426</v>
       </c>
       <c r="X48" s="19">
-        <v>268807</v>
+        <v>190338</v>
       </c>
       <c r="Y48" s="19">
-        <v>186426</v>
+        <v>428516</v>
       </c>
       <c r="Z48" s="19">
-        <v>190338</v>
+        <v>284035</v>
       </c>
       <c r="AA48" s="19">
-        <v>428516</v>
+        <v>281465</v>
       </c>
       <c r="AB48" s="19">
-        <v>284035</v>
+        <v>407924</v>
       </c>
       <c r="AC48" s="19">
-        <v>281465</v>
+        <v>320594</v>
       </c>
       <c r="AD48" s="19">
-        <v>407924</v>
+        <v>271461</v>
       </c>
       <c r="AE48" s="19">
-        <v>320594</v>
+        <v>391549</v>
       </c>
       <c r="AF48" s="19">
-        <v>271461</v>
+        <v>463301</v>
       </c>
       <c r="AG48" s="19">
-        <v>391549</v>
+        <v>703076</v>
       </c>
       <c r="AH48" s="19">
-        <v>463301</v>
+        <v>555060</v>
       </c>
       <c r="AI48" s="19">
-        <v>703076</v>
+        <v>621736</v>
       </c>
       <c r="AJ48" s="19">
-        <v>555060</v>
+        <v>707315</v>
       </c>
       <c r="AK48" s="19">
-        <v>621736</v>
+        <v>727509</v>
       </c>
       <c r="AL48" s="19">
-        <v>707315</v>
+        <v>773210</v>
       </c>
       <c r="AM48" s="19">
-        <v>727509</v>
+        <v>581378</v>
       </c>
       <c r="AN48" s="19">
-        <v>773210</v>
+        <v>940656</v>
       </c>
       <c r="AO48" s="19">
-        <v>581378</v>
+        <v>760117</v>
       </c>
       <c r="AP48" s="19">
-        <v>940656</v>
+        <v>761853</v>
       </c>
       <c r="AQ48" s="19">
-        <v>760117</v>
+        <v>714918</v>
       </c>
       <c r="AR48" s="19">
-        <v>7293258</v>
+        <v>930752</v>
       </c>
       <c r="AS48" s="19">
-        <v>714918</v>
+        <v>1159894</v>
       </c>
       <c r="AT48" s="19">
-        <v>930752</v>
+        <v>1047653</v>
       </c>
       <c r="AU48" s="19">
-        <v>1159894</v>
+        <v>1039285</v>
       </c>
       <c r="AV48" s="19">
-        <v>1047653</v>
+        <v>870828</v>
       </c>
       <c r="AW48" s="19">
-        <v>1039285</v>
+        <v>877028</v>
       </c>
       <c r="AX48" s="19">
-        <v>870828</v>
+        <v>749653</v>
       </c>
       <c r="AY48" s="19">
-        <v>877028</v>
+        <v>901932</v>
       </c>
       <c r="AZ48" s="19">
-        <v>749653</v>
+        <v>1024056</v>
       </c>
       <c r="BA48" s="19">
-        <v>901932</v>
+        <v>658833</v>
       </c>
       <c r="BB48" s="19">
-        <v>1023275</v>
+        <v>711130</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -5833,7 +5833,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -5888,7 +5888,7 @@
       <c r="BA50" s="1"/>
       <c r="BB50" s="1"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -5943,7 +5943,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
         <v>73</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6155,7 +6155,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
         <v>74</v>
       </c>
@@ -6212,7 +6212,7 @@
       <c r="BA54" s="9"/>
       <c r="BB54" s="9"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>55</v>
       </c>
@@ -6304,38 +6304,38 @@
       <c r="AF55" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AG55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH55" s="11" t="s">
-        <v>57</v>
+      <c r="AG55" s="11">
+        <v>252831579</v>
+      </c>
+      <c r="AH55" s="11">
+        <v>242744292</v>
       </c>
       <c r="AI55" s="11">
-        <v>252831579</v>
+        <v>239968338</v>
       </c>
       <c r="AJ55" s="11">
-        <v>242744292</v>
-      </c>
-      <c r="AK55" s="11">
-        <v>239968338</v>
+        <v>253437500</v>
+      </c>
+      <c r="AK55" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AL55" s="11">
-        <v>253437500</v>
-      </c>
-      <c r="AM55" s="11" t="s">
-        <v>57</v>
+        <v>244621622</v>
+      </c>
+      <c r="AM55" s="11">
+        <v>246631579</v>
       </c>
       <c r="AN55" s="11">
-        <v>244621622</v>
+        <v>223008230</v>
       </c>
       <c r="AO55" s="11">
-        <v>246631579</v>
+        <v>234025641</v>
       </c>
       <c r="AP55" s="11">
-        <v>223008230</v>
-      </c>
-      <c r="AQ55" s="11">
-        <v>234025641</v>
+        <v>226135762</v>
+      </c>
+      <c r="AQ55" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR55" s="11" t="s">
         <v>57</v>
@@ -6371,7 +6371,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>58</v>
       </c>
@@ -6472,14 +6472,14 @@
       <c r="AI56" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AJ56" s="13" t="s">
-        <v>57</v>
+      <c r="AJ56" s="13">
+        <v>241928226</v>
       </c>
       <c r="AK56" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AL56" s="13">
-        <v>241928226</v>
+      <c r="AL56" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AM56" s="13" t="s">
         <v>57</v>
@@ -6530,7 +6530,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>59</v>
       </c>
@@ -6539,154 +6539,154 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>98240731</v>
+        <v>98273418</v>
       </c>
       <c r="F57" s="11">
-        <v>98810770</v>
+        <v>96516277</v>
       </c>
       <c r="G57" s="11">
-        <v>98273418</v>
+        <v>93616045</v>
       </c>
       <c r="H57" s="11">
-        <v>96516277</v>
+        <v>92133094</v>
       </c>
       <c r="I57" s="11">
-        <v>93616045</v>
+        <v>94048815</v>
       </c>
       <c r="J57" s="11">
-        <v>92133094</v>
+        <v>97859660</v>
       </c>
       <c r="K57" s="11">
-        <v>94048815</v>
+        <v>105720461</v>
       </c>
       <c r="L57" s="11">
-        <v>97859660</v>
+        <v>112393279</v>
       </c>
       <c r="M57" s="11">
-        <v>105720461</v>
+        <v>112235072</v>
       </c>
       <c r="N57" s="11">
-        <v>112393279</v>
+        <v>98807298</v>
       </c>
       <c r="O57" s="11">
-        <v>112235072</v>
+        <v>100040103</v>
       </c>
       <c r="P57" s="11">
-        <v>98807298</v>
+        <v>90508779</v>
       </c>
       <c r="Q57" s="11">
-        <v>100040103</v>
+        <v>92078243</v>
       </c>
       <c r="R57" s="11">
-        <v>90508779</v>
+        <v>92453358</v>
       </c>
       <c r="S57" s="11">
-        <v>92078243</v>
+        <v>93307742</v>
       </c>
       <c r="T57" s="11">
-        <v>92453358</v>
+        <v>93182332</v>
       </c>
       <c r="U57" s="11">
-        <v>93307742</v>
+        <v>89152783</v>
       </c>
       <c r="V57" s="11">
-        <v>93182332</v>
+        <v>85416905</v>
       </c>
       <c r="W57" s="11">
-        <v>89152783</v>
+        <v>86428373</v>
       </c>
       <c r="X57" s="11">
-        <v>85416905</v>
+        <v>104696370</v>
       </c>
       <c r="Y57" s="11">
-        <v>86428373</v>
+        <v>114149174</v>
       </c>
       <c r="Z57" s="11">
-        <v>104696370</v>
+        <v>123332610</v>
       </c>
       <c r="AA57" s="11">
-        <v>114149174</v>
+        <v>138926456</v>
       </c>
       <c r="AB57" s="11">
-        <v>123332610</v>
+        <v>165688058</v>
       </c>
       <c r="AC57" s="11">
-        <v>138926456</v>
+        <v>181331448</v>
       </c>
       <c r="AD57" s="11">
-        <v>165688058</v>
+        <v>182925202</v>
       </c>
       <c r="AE57" s="11">
-        <v>181331448</v>
+        <v>204357516</v>
       </c>
       <c r="AF57" s="11">
-        <v>182925202</v>
+        <v>223385246</v>
       </c>
       <c r="AG57" s="11">
-        <v>204357516</v>
+        <v>229411149</v>
       </c>
       <c r="AH57" s="11">
-        <v>223385246</v>
+        <v>228032258</v>
       </c>
       <c r="AI57" s="11">
-        <v>229411149</v>
-      </c>
-      <c r="AJ57" s="11">
-        <v>228032258</v>
+        <v>232495839</v>
+      </c>
+      <c r="AJ57" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AK57" s="11">
-        <v>232495839</v>
-      </c>
-      <c r="AL57" s="11" t="s">
-        <v>57</v>
+        <v>247367902</v>
+      </c>
+      <c r="AL57" s="11">
+        <v>261250940</v>
       </c>
       <c r="AM57" s="11">
-        <v>247367902</v>
+        <v>265267709</v>
       </c>
       <c r="AN57" s="11">
-        <v>261250940</v>
+        <v>265011958</v>
       </c>
       <c r="AO57" s="11">
-        <v>265267709</v>
+        <v>266025505</v>
       </c>
       <c r="AP57" s="11">
-        <v>265011958</v>
+        <v>287664869</v>
       </c>
       <c r="AQ57" s="11">
-        <v>266025505</v>
+        <v>290971917</v>
       </c>
       <c r="AR57" s="11">
-        <v>238323545</v>
+        <v>348726864</v>
       </c>
       <c r="AS57" s="11">
-        <v>290971917</v>
+        <v>398178510</v>
       </c>
       <c r="AT57" s="11">
-        <v>348726864</v>
+        <v>428838723</v>
       </c>
       <c r="AU57" s="11">
-        <v>398178510</v>
+        <v>428041598</v>
       </c>
       <c r="AV57" s="11">
-        <v>428838723</v>
+        <v>431530228</v>
       </c>
       <c r="AW57" s="11">
-        <v>428041598</v>
+        <v>415259470</v>
       </c>
       <c r="AX57" s="11">
-        <v>431530228</v>
+        <v>367657185</v>
       </c>
       <c r="AY57" s="11">
-        <v>415259470</v>
+        <v>349721598</v>
       </c>
       <c r="AZ57" s="11">
-        <v>367657185</v>
+        <v>353244567</v>
       </c>
       <c r="BA57" s="11">
-        <v>349721598</v>
+        <v>345119434</v>
       </c>
       <c r="BB57" s="11">
-        <v>352975164</v>
+        <v>344206196</v>
       </c>
     </row>
   </sheetData>
